--- a/rom/Employees/Employees.xlsx
+++ b/rom/Employees/Employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -42,6 +42,22 @@
   </si>
   <si>
     <t>00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jhon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">garcia </t>
+  </si>
+  <si>
+    <t>jhon</t>
+  </si>
+  <si>
+    <t>jon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jsjssk
+</t>
   </si>
 </sst>
 </file>
@@ -86,7 +102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -134,6 +150,48 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/rom/Employees/Employees.xlsx
+++ b/rom/Employees/Employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,19 @@
     <t xml:space="preserve">jsjssk
 </t>
   </si>
+  <si>
+    <t>102358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea </t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nada
+</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -164,34 +177,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/rom/Employees/Employees.xlsx
+++ b/rom/Employees/Employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -71,6 +71,9 @@
   <si>
     <t xml:space="preserve">Nada
 </t>
+  </si>
+  <si>
+    <t>sjsjs</t>
   </si>
 </sst>
 </file>

--- a/rom/Employees/Employees.xlsx
+++ b/rom/Employees/Employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>sjsjs</t>
+  </si>
+  <si>
+    <t>hhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
+  </si>
+  <si>
+    <t>hhhhh</t>
+  </si>
+  <si>
+    <t>hhhhhhhhhhhhhhhhhhh</t>
+  </si>
+  <si>
+    <t>hhhhhhhhhhhhhhhhhhhhhhhhhh</t>
   </si>
 </sst>
 </file>
@@ -118,7 +130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -180,6 +192,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/rom/Employees/Employees.xlsx
+++ b/rom/Employees/Employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -75,18 +75,6 @@
   <si>
     <t>sjsjs</t>
   </si>
-  <si>
-    <t>hhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
-  </si>
-  <si>
-    <t>hhhhh</t>
-  </si>
-  <si>
-    <t>hhhhhhhhhhhhhhhhhhh</t>
-  </si>
-  <si>
-    <t>hhhhhhhhhhhhhhhhhhhhhhhhhh</t>
-  </si>
 </sst>
 </file>
 
@@ -130,7 +118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -192,20 +180,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
